--- a/post-graduate paper/test-result/conflict.xlsx
+++ b/post-graduate paper/test-result/conflict.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,6 +102,947 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>算法更新冲突概率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sssp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8799999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5813-4C86-8E18-39F2CC605ECD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2070068895"/>
+        <c:axId val="2070115071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2070068895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2070115071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2070115071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2070068895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,17 +1308,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>852569</v>
+        <v>680564</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -397,13 +1338,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>70</v>
+      </c>
+      <c r="E2">
+        <v>3964</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -411,13 +1355,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>92</v>
+      </c>
+      <c r="E3">
+        <v>3899</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -425,13 +1372,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1014</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>50</v>
+      </c>
+      <c r="E4">
+        <v>4056</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -442,10 +1392,13 @@
         <v>1005</v>
       </c>
       <c r="C5">
-        <v>331</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>60</v>
+      </c>
+      <c r="E5">
+        <v>3785</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -456,10 +1409,13 @@
         <v>890</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>53</v>
+      </c>
+      <c r="E6">
+        <v>3948</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -470,10 +1426,13 @@
         <v>822</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>90</v>
+      </c>
+      <c r="E7">
+        <v>3915</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -484,10 +1443,13 @@
         <v>1071</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>114</v>
+      </c>
+      <c r="E8">
+        <v>3871</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -498,10 +1460,13 @@
         <v>949</v>
       </c>
       <c r="C9">
-        <v>882</v>
+        <v>137</v>
       </c>
       <c r="D9">
         <v>77</v>
+      </c>
+      <c r="E9">
+        <v>3814</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -512,10 +1477,13 @@
         <v>989</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>39</v>
+      </c>
+      <c r="E10">
+        <v>3946</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -526,10 +1494,13 @@
         <v>912</v>
       </c>
       <c r="C11">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>80</v>
+      </c>
+      <c r="E11">
+        <v>4011</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -538,11 +1509,19 @@
       </c>
       <c r="B12">
         <f>SUM(B2:B11)</f>
-        <v>9760</v>
+        <v>6638</v>
       </c>
       <c r="C12">
         <f>SUM(C2:C11)</f>
-        <v>1602</v>
+        <v>592</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>725</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>39209</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -550,16 +1529,27 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <f>1602/852569</f>
-        <v>1.8790268001768772E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="C13">
-        <f>9760/852569</f>
-        <v>1.1447753788842897E-2</v>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E13">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>1361128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>